--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4018229.226028289</v>
+        <v>4016349.04625796</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7616059.302096049</v>
+        <v>7616059.302096048</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>346.6999128968763</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>76.27526719558723</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>101.7190924071507</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>216.6993815150876</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.0652989176032</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>43.99240337009266</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.70733080350584</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211467</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.52957122315919</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>146.50356341602</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>156.4447884716826</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>35.72089146414786</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.97977672146241</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
@@ -2302,10 +2302,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.76960534990713</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.2101241644463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>168.7913288562258</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>54.84698023557809</v>
       </c>
       <c r="F28" t="n">
-        <v>131.5868781663593</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808134</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
-        <v>146.0486661300933</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>136.6477650525033</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>959.5129866402885</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>621.666340620069</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>621.666340620069</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>621.666340620069</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>621.666340620069</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.312204670903</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1388.349687730491</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1030.083989123741</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>644.2957365254963</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>637.3502357762928</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.312204670903</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4747,25 +4747,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>990.5839652830421</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830421</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.15289212512</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.013560149308</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.9005583181186</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>441.9005583181186</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>291.7839189057828</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>291.7839189057828</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>291.7839189057828</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181187</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181187</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181186</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,13 +5309,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5355,7 +5355,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>229.0333923118335</v>
+        <v>229.0333923118336</v>
       </c>
       <c r="K15" t="n">
         <v>378.1030765138935</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1377.205236591285</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1153.41982138079</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>864.2911825943485</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>864.2911825943485</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>864.2911825943485</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X16" t="n">
-        <v>636.3016316963311</v>
+        <v>97.21709146028594</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677.227247311529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>529.2438499216098</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>529.2438499216098</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>529.2438499216098</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>393.5060754799736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>236.4829268560684</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
         <v>822.7849551969364</v>
@@ -5698,25 +5698,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057537</v>
+        <v>1428.333190197251</v>
       </c>
       <c r="T19" t="n">
-        <v>1586.358229057537</v>
+        <v>1215.699948043031</v>
       </c>
       <c r="U19" t="n">
-        <v>1586.358229057537</v>
+        <v>937.7234823128634</v>
       </c>
       <c r="V19" t="n">
-        <v>1342.825913907924</v>
+        <v>694.1911671632507</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.560916927238</v>
+        <v>694.1911671632507</v>
       </c>
       <c r="X19" t="n">
-        <v>847.7235390854946</v>
+        <v>477.3537893215075</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.7235390854946</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,25 +5750,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,19 +5777,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,19 +5832,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>474.8900731662869</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>1088.787142923176</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203137</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.96990386717</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085867</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P21" t="n">
         <v>2525.810590821615</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>433.1426906437188</v>
+        <v>291.082809881563</v>
       </c>
       <c r="C22" t="n">
-        <v>275.358680772086</v>
+        <v>133.2988000099302</v>
       </c>
       <c r="D22" t="n">
-        <v>275.358680772086</v>
+        <v>133.2988000099302</v>
       </c>
       <c r="E22" t="n">
-        <v>275.358680772086</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>139.6209063304498</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>139.6209063304498</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>139.6209063304498</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969367</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
         <v>1536.594541272927</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T22" t="n">
-        <v>1586.358229057537</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U22" t="n">
-        <v>1308.38176332737</v>
+        <v>995.8255907912486</v>
       </c>
       <c r="V22" t="n">
-        <v>1308.38176332737</v>
+        <v>995.8255907912486</v>
       </c>
       <c r="W22" t="n">
-        <v>1030.116766346683</v>
+        <v>717.5605938105623</v>
       </c>
       <c r="X22" t="n">
-        <v>813.2793885049402</v>
+        <v>500.723215968819</v>
       </c>
       <c r="Y22" t="n">
-        <v>603.6389824176844</v>
+        <v>291.082809881563</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>624.8682044203576</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>932.1883377003194</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>233.9780119864048</v>
+        <v>285.2604416327757</v>
       </c>
       <c r="C25" t="n">
-        <v>233.9780119864048</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="D25" t="n">
-        <v>233.9780119864048</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172996</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.724986903317</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>1095.74852117315</v>
+        <v>807.0577537630751</v>
       </c>
       <c r="V25" t="n">
-        <v>1095.74852117315</v>
+        <v>563.5254386134621</v>
       </c>
       <c r="W25" t="n">
-        <v>817.4835241924634</v>
+        <v>285.2604416327757</v>
       </c>
       <c r="X25" t="n">
-        <v>600.6461463507202</v>
+        <v>285.2604416327757</v>
       </c>
       <c r="Y25" t="n">
-        <v>404.4743037603703</v>
+        <v>285.2604416327757</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014291</v>
@@ -6260,16 +6260,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>735.040755905723</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O27" t="n">
-        <v>2279.445761859783</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>921.048093711661</v>
+        <v>427.3203223949312</v>
       </c>
       <c r="C28" t="n">
-        <v>763.2640838400282</v>
+        <v>427.3203223949312</v>
       </c>
       <c r="D28" t="n">
-        <v>624.2996174839666</v>
+        <v>288.3558560388696</v>
       </c>
       <c r="E28" t="n">
-        <v>487.5386969578477</v>
+        <v>232.954865901922</v>
       </c>
       <c r="F28" t="n">
-        <v>354.6226584059694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L28" t="n">
         <v>540.2879676172995</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036939</v>
@@ -6409,25 +6409,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S28" t="n">
-        <v>1586.358229057537</v>
+        <v>1397.590392029364</v>
       </c>
       <c r="T28" t="n">
-        <v>1586.358229057537</v>
+        <v>1397.590392029364</v>
       </c>
       <c r="U28" t="n">
-        <v>1308.38176332737</v>
+        <v>1119.613926299196</v>
       </c>
       <c r="V28" t="n">
-        <v>1308.38176332737</v>
+        <v>876.0816111495831</v>
       </c>
       <c r="W28" t="n">
-        <v>1308.38176332737</v>
+        <v>597.8166141688966</v>
       </c>
       <c r="X28" t="n">
-        <v>1091.544385485626</v>
+        <v>597.8166141688966</v>
       </c>
       <c r="Y28" t="n">
-        <v>1091.544385485626</v>
+        <v>597.8166141688966</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O30" t="n">
-        <v>1818.397748747283</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.65782292164</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>529.7033421296164</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C31" t="n">
-        <v>371.9193322579836</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D31" t="n">
-        <v>232.9548659019221</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E31" t="n">
-        <v>232.9548659019221</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028586</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.645677793716</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N31" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
         <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057538</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S31" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647464</v>
       </c>
       <c r="T31" t="n">
-        <v>1586.358229057537</v>
+        <v>1085.034219493244</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.834323875624</v>
+        <v>807.0577537630761</v>
       </c>
       <c r="V31" t="n">
-        <v>1195.302008726012</v>
+        <v>563.5254386134634</v>
       </c>
       <c r="W31" t="n">
-        <v>917.0370117453251</v>
+        <v>425.497393105884</v>
       </c>
       <c r="X31" t="n">
-        <v>700.199633903582</v>
+        <v>425.497393105884</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.199633903582</v>
+        <v>425.497393105884</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>391.6040140015125</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>638.3691419079765</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,10 +6932,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6953,31 +6953,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,16 +7002,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256434</v>
@@ -7020,13 +7020,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>474.7746905116418</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>721.5398184181058</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.859951698067</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7418,7 +7418,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619129</v>
@@ -7491,25 +7491,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,16 +7552,16 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N45" t="n">
-        <v>2013.406634128704</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O45" t="n">
-        <v>2292.946699347401</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,61 +7780,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254965</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.84894686497</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
         <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>176.7176547498456</v>
+        <v>253.7371603504725</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>91.23759968302019</v>
+        <v>91.23759968302028</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>286.5092576192338</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>189.002242766246</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>28.12263706262956</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>91.23759968302028</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>165.9802687929755</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714798</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>202.5230052237934</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>41.75994765618424</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3877236703349</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103788</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>104.874910276575</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>20.63789864135396</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10902,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.8856946302409</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>28.12263706263059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>122.7862376598717</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>158.8051956154443</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>187.3912387604441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9.702606356896382</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856054</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808136</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>30.4353701862093</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>99.67241985670995</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>57.3988174170981</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808132</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>105.4365644230093</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856052</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808132</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.33387786193703</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>80.54633108527963</v>
       </c>
       <c r="F28" t="n">
-        <v>2.793518530860524</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.37859413856053</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>210.5069097326778</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
         <v>207.5440020263833</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
         <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>129.1480349427726</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.8345819583762</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>644958.1563456174</v>
+        <v>644958.1563456173</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644958.1563456173</v>
+        <v>644958.1563456174</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.5829925198</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="H2" t="n">
+        <v>748956.5829925196</v>
+      </c>
+      <c r="I2" t="n">
+        <v>748956.5829925194</v>
+      </c>
+      <c r="J2" t="n">
         <v>748956.5829925195</v>
       </c>
-      <c r="I2" t="n">
-        <v>748956.5829925195</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>748956.5829925194</v>
       </c>
-      <c r="K2" t="n">
-        <v>748956.5829925202</v>
-      </c>
       <c r="L2" t="n">
+        <v>779989.6813710696</v>
+      </c>
+      <c r="M2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>779989.6813710696</v>
+      </c>
+      <c r="O2" t="n">
         <v>779989.6813710695</v>
       </c>
-      <c r="N2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710693</v>
-      </c>
       <c r="P2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060568968</v>
+        <v>8832.521060569119</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371246</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="G4" t="n">
-        <v>18678.59412427837</v>
+        <v>18678.59412427836</v>
       </c>
       <c r="H4" t="n">
-        <v>18678.59412427839</v>
+        <v>18678.59412427835</v>
       </c>
       <c r="I4" t="n">
-        <v>18678.59412427841</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="J4" t="n">
-        <v>18678.59412427847</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="K4" t="n">
-        <v>18678.59412427842</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275964</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501788</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501784</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49612.23415810749</v>
+        <v>-49612.23415810746</v>
       </c>
       <c r="C6" t="n">
-        <v>540355.645056437</v>
+        <v>540355.6450564369</v>
       </c>
       <c r="D6" t="n">
-        <v>540355.6450564369</v>
+        <v>540355.6450564368</v>
       </c>
       <c r="E6" t="n">
-        <v>110762.1814545953</v>
+        <v>110664.7223286226</v>
       </c>
       <c r="F6" t="n">
-        <v>635922.2179314914</v>
+        <v>635824.75880552</v>
       </c>
       <c r="G6" t="n">
-        <v>628529.9653426546</v>
+        <v>628448.2992942894</v>
       </c>
       <c r="H6" t="n">
-        <v>637362.4864032232</v>
+        <v>637280.8203548588</v>
       </c>
       <c r="I6" t="n">
-        <v>637362.4864032232</v>
+        <v>637280.8203548585</v>
       </c>
       <c r="J6" t="n">
-        <v>460939.2672106304</v>
+        <v>460857.6011622658</v>
       </c>
       <c r="K6" t="n">
-        <v>637362.4864032239</v>
+        <v>637280.8203548585</v>
       </c>
       <c r="L6" t="n">
-        <v>590304.6065845719</v>
+        <v>590304.6065845722</v>
       </c>
       <c r="M6" t="n">
-        <v>510009.1034544474</v>
+        <v>510009.1034544473</v>
       </c>
       <c r="N6" t="n">
+        <v>644810.1186882847</v>
+      </c>
+      <c r="O6" t="n">
         <v>644810.1186882845</v>
       </c>
-      <c r="O6" t="n">
-        <v>644810.1186882843</v>
-      </c>
       <c r="P6" t="n">
-        <v>644810.1186882845</v>
+        <v>644810.1186882847</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J2" t="n">
         <v>11.04065132571144</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26759,13 +26759,13 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>23.03118778159273</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>148.7598382624971</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>312.0650776136443</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>69.82361682150341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.66854274587735</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>101.4286446528386</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="26">
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9122281478584</v>
+        <v>586.9317337484857</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>133.1477786379269</v>
+        <v>133.147778637927</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879393</v>
@@ -35738,13 +35738,13 @@
         <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556551</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>568.872959860342</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3175291313152</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
         <v>247.2780028463143</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N20" t="n">
         <v>803.580930408112</v>
@@ -36200,7 +36200,7 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>339.5776813541852</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594836</v>
@@ -36209,13 +36209,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>235.2160519941543</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507416</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.548421491277</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463144</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375123</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758622</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>340.4953046390447</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>253.9933015780496</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.548421491277</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
@@ -36522,19 +36522,19 @@
         <v>261.25483820564</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313152</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463144</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375123</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758622</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109096</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>451.7807101798178</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>248.8533625877089</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127698</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
         <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>504.4811386018595</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>233.248164095453</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127698</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O31" t="n">
         <v>247.2780028463143</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>255.4503488645142</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973783</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37388,16 +37388,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>339.4611332181801</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37640,10 +37640,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37786,10 +37786,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37859,28 +37859,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>343.3468637082227</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>298.8501529445951</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>235.2160519941552</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
